--- a/v1.6/test/cases.xlsx
+++ b/v1.6/test/cases.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/a7f05f52763bdf56/1.Alienware-Backup/6.IT CIARA/Work Projects/Github/INT-P4-project/python_scripts/cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="322" documentId="8_{21BF8B15-E2D4-4B78-BBB2-22A87C0CAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8CED366E-2F96-4FCC-8288-058DF7BAF23A}"/>
+  <xr:revisionPtr revIDLastSave="326" documentId="8_{21BF8B15-E2D4-4B78-BBB2-22A87C0CAE8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F659029-121E-4240-B71E-66B6E65C6B3B}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{549D4C46-3B8F-488D-BD3A-96118A791B4E}"/>
+    <workbookView xWindow="57480" yWindow="-60" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{549D4C46-3B8F-488D-BD3A-96118A791B4E}"/>
   </bookViews>
   <sheets>
     <sheet name="Cases" sheetId="2" r:id="rId1"/>
     <sheet name="Stg-tbls" sheetId="3" r:id="rId2"/>
     <sheet name="indirect_counter" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Cases!$AM$1:$AM$131</definedName>
@@ -63,7 +64,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3443" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3461" uniqueCount="106">
   <si>
     <t>P4 SW</t>
   </si>
@@ -1349,7 +1350,147 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="22">
+  <dxfs count="36">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4E4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4E4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFE4E4E4"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C5700"/>
@@ -1907,39 +2048,39 @@
   <dimension ref="A1:AN131"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="18" ySplit="1" topLeftCell="S131" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="18" ySplit="1" topLeftCell="S119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="R1" sqref="R1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="H139" sqref="H139"/>
+      <selection pane="bottomRight" activeCell="U1" sqref="U1:AL1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" style="24" customWidth="1"/>
-    <col min="3" max="17" width="4.7109375" style="24" customWidth="1"/>
-    <col min="18" max="18" width="5.5703125" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="4.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.88671875" style="24" customWidth="1"/>
+    <col min="3" max="17" width="4.6640625" style="24" customWidth="1"/>
+    <col min="18" max="18" width="5.5546875" customWidth="1"/>
+    <col min="19" max="19" width="8.88671875" style="14" customWidth="1"/>
     <col min="20" max="20" width="5" style="30" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="5" customWidth="1"/>
     <col min="22" max="22" width="6" customWidth="1"/>
-    <col min="23" max="23" width="7.42578125" customWidth="1"/>
-    <col min="24" max="24" width="6.5703125" customWidth="1"/>
-    <col min="26" max="26" width="5.7109375" customWidth="1"/>
-    <col min="27" max="27" width="7.28515625" customWidth="1"/>
+    <col min="23" max="23" width="7.44140625" customWidth="1"/>
+    <col min="24" max="24" width="6.5546875" customWidth="1"/>
+    <col min="26" max="26" width="5.6640625" customWidth="1"/>
+    <col min="27" max="27" width="7.33203125" customWidth="1"/>
     <col min="28" max="28" width="6" customWidth="1"/>
-    <col min="29" max="30" width="5.140625" customWidth="1"/>
-    <col min="31" max="31" width="5.5703125" customWidth="1"/>
-    <col min="32" max="32" width="7.28515625" customWidth="1"/>
-    <col min="33" max="34" width="7.7109375" customWidth="1"/>
-    <col min="35" max="35" width="5.5703125" style="42" customWidth="1"/>
-    <col min="36" max="36" width="8.140625" customWidth="1"/>
-    <col min="37" max="38" width="5.5703125" customWidth="1"/>
-    <col min="39" max="39" width="7.85546875" style="30" bestFit="1" customWidth="1"/>
-    <col min="40" max="40" width="22.140625" style="24" customWidth="1"/>
+    <col min="29" max="30" width="5.109375" customWidth="1"/>
+    <col min="31" max="31" width="5.5546875" customWidth="1"/>
+    <col min="32" max="32" width="7.33203125" customWidth="1"/>
+    <col min="33" max="34" width="7.6640625" customWidth="1"/>
+    <col min="35" max="35" width="5.5546875" style="42" customWidth="1"/>
+    <col min="36" max="36" width="8.109375" customWidth="1"/>
+    <col min="37" max="38" width="5.5546875" customWidth="1"/>
+    <col min="39" max="39" width="7.88671875" style="30" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="22.109375" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="63.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:40" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>3</v>
       </c>
@@ -2061,7 +2202,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2203,7 +2344,7 @@
         <v>eth(0x8100)/u-vlan(200,0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2345,7 +2486,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2486,7 +2627,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2627,7 +2768,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2769,7 +2910,7 @@
         <v>eth(0x8100)/u-vlan(200,0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2911,7 +3052,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -3053,7 +3194,7 @@
         <v>eth(0x8100)/u-vlan(200,0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -3195,7 +3336,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -3336,7 +3477,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -3478,7 +3619,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3619,7 +3760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3760,7 +3901,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3901,7 +4042,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4042,7 +4183,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -4183,7 +4324,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -4324,7 +4465,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -4465,7 +4606,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -4606,7 +4747,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -4747,7 +4888,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="21" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -4888,7 +5029,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="22" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -5029,7 +5170,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -5170,7 +5311,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -5311,7 +5452,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -5452,7 +5593,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -5593,7 +5734,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -5735,7 +5876,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="28" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -5876,7 +6017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="29" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -6017,7 +6158,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="30" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -6158,7 +6299,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -6299,7 +6440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -6440,7 +6581,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="33" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -6581,7 +6722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="34" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -6722,7 +6863,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="35" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>34</v>
       </c>
@@ -6864,7 +7005,7 @@
         <v>eth(0x0800)/ipv4/udp/payload</v>
       </c>
     </row>
-    <row r="36" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>35</v>
       </c>
@@ -7005,7 +7146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="37" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>36</v>
       </c>
@@ -7146,7 +7287,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>37</v>
       </c>
@@ -7287,7 +7428,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="39" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>38</v>
       </c>
@@ -7428,7 +7569,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>39</v>
       </c>
@@ -7569,7 +7710,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="41" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>40</v>
       </c>
@@ -7710,7 +7851,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="42" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>41</v>
       </c>
@@ -7851,7 +7992,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="43" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>42</v>
       </c>
@@ -7992,7 +8133,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="44" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43</v>
       </c>
@@ -8133,7 +8274,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="45" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>44</v>
       </c>
@@ -8274,7 +8415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>45</v>
       </c>
@@ -8415,7 +8556,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="47" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>46</v>
       </c>
@@ -8556,7 +8697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="48" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>47</v>
       </c>
@@ -8697,7 +8838,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="49" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>48</v>
       </c>
@@ -8838,7 +8979,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>49</v>
       </c>
@@ -8979,7 +9120,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="51" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>50</v>
       </c>
@@ -9120,7 +9261,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>51</v>
       </c>
@@ -9261,7 +9402,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="53" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>52</v>
       </c>
@@ -9402,7 +9543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="54" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>53</v>
       </c>
@@ -9543,7 +9684,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>54</v>
       </c>
@@ -9684,7 +9825,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>55</v>
       </c>
@@ -9825,7 +9966,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="57" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>56</v>
       </c>
@@ -9966,7 +10107,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>57</v>
       </c>
@@ -10107,7 +10248,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>58</v>
       </c>
@@ -10248,7 +10389,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="60" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>59</v>
       </c>
@@ -10389,7 +10530,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>60</v>
       </c>
@@ -10530,7 +10671,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="62" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>61</v>
       </c>
@@ -10671,7 +10812,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="63" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>62</v>
       </c>
@@ -10812,7 +10953,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="64" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>63</v>
       </c>
@@ -10953,7 +11094,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="65" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>64</v>
       </c>
@@ -11094,7 +11235,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>65</v>
       </c>
@@ -11235,7 +11376,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="67" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>66</v>
       </c>
@@ -11376,7 +11517,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="68" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>67</v>
       </c>
@@ -11517,7 +11658,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="69" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>68</v>
       </c>
@@ -11658,7 +11799,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="70" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>69</v>
       </c>
@@ -11799,7 +11940,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="71" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>70</v>
       </c>
@@ -11940,7 +12081,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="72" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>71</v>
       </c>
@@ -12081,7 +12222,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="73" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>72</v>
       </c>
@@ -12222,7 +12363,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="74" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>73</v>
       </c>
@@ -12363,7 +12504,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="75" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>74</v>
       </c>
@@ -12504,7 +12645,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="76" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>75</v>
       </c>
@@ -12645,7 +12786,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="77" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>76</v>
       </c>
@@ -12786,7 +12927,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="78" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>77</v>
       </c>
@@ -12927,7 +13068,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="79" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>78</v>
       </c>
@@ -13068,7 +13209,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>79</v>
       </c>
@@ -13209,7 +13350,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="81" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>80</v>
       </c>
@@ -13350,7 +13491,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>81</v>
       </c>
@@ -13491,7 +13632,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1">
         <v>82</v>
       </c>
@@ -13632,7 +13773,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>83</v>
       </c>
@@ -13773,7 +13914,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="85" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>84</v>
       </c>
@@ -13914,7 +14055,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>85</v>
       </c>
@@ -14055,7 +14196,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="87" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>86</v>
       </c>
@@ -14196,7 +14337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="88" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>87</v>
       </c>
@@ -14337,7 +14478,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="89" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>88</v>
       </c>
@@ -14478,7 +14619,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>89</v>
       </c>
@@ -14619,7 +14760,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="91" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>90</v>
       </c>
@@ -14760,7 +14901,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="92" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>91</v>
       </c>
@@ -14901,7 +15042,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="93" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>92</v>
       </c>
@@ -15042,7 +15183,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>93</v>
       </c>
@@ -15183,7 +15324,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="95" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>94</v>
       </c>
@@ -15324,7 +15465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>95</v>
       </c>
@@ -15465,7 +15606,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="97" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>96</v>
       </c>
@@ -15606,7 +15747,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>97</v>
       </c>
@@ -15747,7 +15888,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>98</v>
       </c>
@@ -15888,7 +16029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="100" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>99</v>
       </c>
@@ -16029,7 +16170,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="101" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>100</v>
       </c>
@@ -16170,7 +16311,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="102" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>101</v>
       </c>
@@ -16311,7 +16452,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>102</v>
       </c>
@@ -16452,7 +16593,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="104" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>103</v>
       </c>
@@ -16593,7 +16734,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="105" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>104</v>
       </c>
@@ -16734,7 +16875,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>105</v>
       </c>
@@ -16875,7 +17016,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="107" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>106</v>
       </c>
@@ -17016,7 +17157,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="108" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>107</v>
       </c>
@@ -17157,7 +17298,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="109" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>108</v>
       </c>
@@ -17298,7 +17439,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>109</v>
       </c>
@@ -17439,7 +17580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="111" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>110</v>
       </c>
@@ -17580,7 +17721,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="112" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>111</v>
       </c>
@@ -17721,7 +17862,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="113" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113" s="1">
         <v>112</v>
       </c>
@@ -17862,7 +18003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114" s="1">
         <v>113</v>
       </c>
@@ -18003,7 +18144,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="115" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1">
         <v>114</v>
       </c>
@@ -18144,7 +18285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="116" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116" s="1">
         <v>115</v>
       </c>
@@ -18285,7 +18426,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="117" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117" s="1">
         <v>116</v>
       </c>
@@ -18426,7 +18567,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="118" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="1">
         <v>117</v>
       </c>
@@ -18567,7 +18708,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="119" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="1">
         <v>118</v>
       </c>
@@ -18708,7 +18849,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="120" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120" s="1">
         <v>119</v>
       </c>
@@ -18849,7 +18990,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="121" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121" s="1">
         <v>120</v>
       </c>
@@ -18990,7 +19131,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="1">
         <v>121</v>
       </c>
@@ -19131,7 +19272,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="123" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1">
         <v>122</v>
       </c>
@@ -19272,7 +19413,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="124" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="1">
         <v>123</v>
       </c>
@@ -19413,7 +19554,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="125" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="1">
         <v>124</v>
       </c>
@@ -19554,7 +19695,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="1">
         <v>125</v>
       </c>
@@ -19695,7 +19836,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="127" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="1">
         <v>126</v>
       </c>
@@ -19836,7 +19977,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="128" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128" s="1">
         <v>127</v>
       </c>
@@ -19977,7 +20118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="129" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129" s="1">
         <v>128</v>
       </c>
@@ -20118,7 +20259,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="130" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:40" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130" s="1">
         <v>129</v>
       </c>
@@ -20259,7 +20400,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="131" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:40" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1">
         <v>130</v>
       </c>
@@ -20403,56 +20544,56 @@
   </sheetData>
   <autoFilter ref="AM1:AM131" xr:uid="{372DADE6-18C6-47D8-8227-010D4B9290B1}"/>
   <conditionalFormatting sqref="R1">
-    <cfRule type="cellIs" dxfId="21" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="4" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:R131">
-    <cfRule type="cellIs" dxfId="20" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="19" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="3" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="10" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="13" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:AL1">
-    <cfRule type="cellIs" dxfId="15" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="9" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AF1 T2:AF7 AG1:AL7">
-    <cfRule type="cellIs" dxfId="14" priority="14" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="14" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AF1 AH1:AL1 AG1:AG131 T2:AF131 AH2:AM131">
-    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="6" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1:Y131">
-    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="12" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH1:AL1 T1:AG131 AH2:AM131">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="7" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM2:AM131 T8:AL131">
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="8" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20469,15 +20610,15 @@
       <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
-    <col min="3" max="18" width="12.7109375" style="58" customWidth="1"/>
-    <col min="19" max="21" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="24" customWidth="1"/>
+    <col min="3" max="18" width="12.6640625" style="58" customWidth="1"/>
+    <col min="19" max="21" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="str">
         <f>Cases!U1</f>
         <v>Stg1
@@ -20569,7 +20710,7 @@
 EG:Is mirror pkt and export int port?</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>62</v>
       </c>
@@ -20619,7 +20760,7 @@
       </c>
       <c r="R2" s="65"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -20643,21 +20784,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R2">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -20669,19 +20810,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{185700B6-C43D-433C-BA61-4B0596269888}">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M1" sqref="M1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="58" customWidth="1"/>
-    <col min="2" max="2" width="12.7109375" style="24" customWidth="1"/>
-    <col min="3" max="18" width="12.7109375" style="58" customWidth="1"/>
-    <col min="19" max="21" width="12.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.6640625" style="58" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" style="24" customWidth="1"/>
+    <col min="3" max="18" width="12.6640625" style="58" customWidth="1"/>
+    <col min="19" max="21" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="36" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A1" s="62" t="str">
         <f>Cases!U1</f>
         <v>Stg1
@@ -20773,7 +20914,7 @@
 EG:Is mirror pkt and export int port?</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="27" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A2" s="63" t="s">
         <v>89</v>
       </c>
@@ -20825,7 +20966,7 @@
       </c>
       <c r="R2" s="65"/>
     </row>
-    <row r="3" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="59"/>
       <c r="B3" s="60"/>
       <c r="C3" s="60"/>
@@ -20847,24 +20988,154 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:R2">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="2" operator="equal">
       <formula>"YES"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="3" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2">
-    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="4" operator="equal">
       <formula>"NO"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0109F866-F615-43F5-80F8-6C7FD715E1E3}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="53" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="54" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="54" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="54" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="54" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="54" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="19.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="54" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="56" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="56" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="57" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="57" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="57" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="38.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="57" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="4" priority="3" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="3" priority="5" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="cellIs" dxfId="1" priority="4" operator="equal">
+      <formula>"NO"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A1:A18">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"YES"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>